--- a/CFRP2本_lap=20/thickness=1.0/gap=2.0/mesh_まとめ.xlsx
+++ b/CFRP2本_lap=20/thickness=1.0/gap=2.0/mesh_まとめ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imp01/Documents/kajimoto/ansys-management/CFRP2本_lap=20/thickness=1.0/gap=2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7441A8D-C3D4-B34C-A866-9F5657DAB233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FC15B4-CF50-DF4A-809B-5D1EB3F31240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16220" yWindow="11020" windowWidth="27900" windowHeight="16940" activeTab="4" xr2:uid="{92777FAF-722A-AD4C-90A5-EBB347E54666}"/>
+    <workbookView xWindow="20000" yWindow="10860" windowWidth="27900" windowHeight="16940" activeTab="4" xr2:uid="{92777FAF-722A-AD4C-90A5-EBB347E54666}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,12 @@
     <sheet name="t2" sheetId="4" r:id="rId4"/>
     <sheet name="まとめ" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'t3'!$B$2:$B$9</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'t3'!$C$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'t3'!$C$2:$C$9</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>解析は100分割されて計算されているため，引張距離が短いほど細かく計算され，より高い精度の結果が得られることが考えられる．</t>
     <rPh sb="0" eb="2">
@@ -210,6 +215,9 @@
   <si>
     <t>C2_l20_th1.0_g2.0_d2.0_t2</t>
   </si>
+  <si>
+    <t>C2_l20_th1.0_g2.0_d0.3_t2</t>
+  </si>
 </sst>
 </file>
 
@@ -254,10 +262,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -406,7 +415,7 @@
                   <c:v>49980</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10800</c:v>
+                  <c:v>8940</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3370</c:v>
@@ -755,7 +764,7 @@
                   <c:v>49980</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10800</c:v>
+                  <c:v>8940</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3370</c:v>
@@ -1384,7 +1393,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1443,6 +1454,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>18.73236</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>19.343499999999999</c:v>
                 </c:pt>
@@ -1467,7 +1481,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E86A-2348-BB41-FEE866181E44}"/>
+              <c16:uniqueId val="{00000000-24DC-CB48-A17D-05F00DB712EA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1479,11 +1493,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2043581823"/>
-        <c:axId val="2000109727"/>
+        <c:axId val="2020679887"/>
+        <c:axId val="2020681535"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2043581823"/>
+        <c:axId val="2020679887"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1540,12 +1554,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2000109727"/>
+        <c:crossAx val="2020681535"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2000109727"/>
+        <c:axId val="2020681535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1602,7 +1616,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043581823"/>
+        <c:crossAx val="2020679887"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1749,7 +1763,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2120,7 +2136,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2179,6 +2197,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>18.73236</c:v>
+                </c:pt>
                 <c:pt idx="2">
                   <c:v>19.343499999999999</c:v>
                 </c:pt>
@@ -2203,7 +2224,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8E72-2E4E-9961-735B2C191908}"/>
+              <c16:uniqueId val="{00000000-5EA9-8449-826B-89CFC1B7F91D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2215,11 +2236,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2043581823"/>
-        <c:axId val="2000109727"/>
+        <c:axId val="2020679887"/>
+        <c:axId val="2020681535"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2043581823"/>
+        <c:axId val="2020679887"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2276,12 +2297,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2000109727"/>
+        <c:crossAx val="2020681535"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2000109727"/>
+        <c:axId val="2020681535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2338,7 +2359,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2043581823"/>
+        <c:crossAx val="2020679887"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2419,7 +2440,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'t2'!$C$1</c:f>
+              <c:f>'t3'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2428,14 +2449,9 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>'t2'!$B$2:$B$9</c:f>
+              <c:f>'t3'!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2468,27 +2484,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'t2'!$C$2:$C$9</c:f>
+              <c:f>'t3'!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14.81024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.68802</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.343499999999999</c:v>
+                  <c:v>15.579940000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.500520000000002</c:v>
+                  <c:v>18.980219999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.395440000000001</c:v>
+                  <c:v>19.505320000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.514859999999999</c:v>
+                  <c:v>19.509160000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.532679999999999</c:v>
+                  <c:v>19.157820000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19.749359999999999</c:v>
+                  <c:v>16.996500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2496,7 +2518,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-CEF7-B84C-B8F6-82160ECD80F5}"/>
+              <c16:uniqueId val="{00000004-D1C5-AF49-AC78-F38F8B8FBB62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2505,7 +2527,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'t3'!$C$1</c:f>
+              <c:f>'t2'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2516,7 +2538,9 @@
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -2538,7 +2562,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'t3'!$B$2:$B$9</c:f>
+              <c:f>'t2'!$B$2:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2571,33 +2595,30 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'t3'!$C$2:$C$9</c:f>
+              <c:f>'t2'!$C$2:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>14.81024</c:v>
-                </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.68802</c:v>
+                  <c:v>18.73236</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15.579940000000001</c:v>
+                  <c:v>19.343499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.980219999999999</c:v>
+                  <c:v>19.500520000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.505320000000001</c:v>
+                  <c:v>19.395440000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.509160000000001</c:v>
+                  <c:v>19.514859999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.157820000000001</c:v>
+                  <c:v>19.532679999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.996500000000001</c:v>
+                  <c:v>19.749359999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2605,7 +2626,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CEF7-B84C-B8F6-82160ECD80F5}"/>
+              <c16:uniqueId val="{00000003-D1C5-AF49-AC78-F38F8B8FBB62}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2617,11 +2638,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2041883983"/>
-        <c:axId val="2018619775"/>
+        <c:axId val="2020679887"/>
+        <c:axId val="2020681535"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2041883983"/>
+        <c:axId val="2020679887"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2678,15 +2699,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2018619775"/>
+        <c:crossAx val="2020681535"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2018619775"/>
+        <c:axId val="2020681535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2741,7 +2761,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2041883983"/>
+        <c:crossAx val="2020679887"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6230,22 +6250,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>768350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>869950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>679450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
+        <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0196B84-86B0-A740-8A89-8934701E814E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1B70228-1FF1-7845-9976-62BEB2AA5F5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6308,23 +6328,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="グラフ 2">
+        <xdr:cNvPr id="5" name="グラフ 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{905821AE-38F5-2942-9C7E-7AB49755EB50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8AA2289-1BFE-2547-982B-701174D16C95}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6347,22 +6367,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3">
+        <xdr:cNvPr id="6" name="グラフ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1575AC90-CC3C-4741-AA2A-13B9C8E69329}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26F82C52-9ECA-624D-BB9C-CDBECC27DE71}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6711,7 +6731,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -6761,17 +6781,17 @@
         <v>0.3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E10" si="0">B4*3600+C4*60+D4</f>
-        <v>10800</v>
+        <v>8940</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7044,7 +7064,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B1" sqref="B1:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7075,8 +7095,17 @@
       </c>
     </row>
     <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
       <c r="B3">
         <v>0.3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>18.73236</v>
+      </c>
+      <c r="D3">
+        <v>3499.0360730000002</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7175,7 +7204,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/CFRP2本_lap=20/thickness=1.0/gap=2.0/mesh_まとめ.xlsx
+++ b/CFRP2本_lap=20/thickness=1.0/gap=2.0/mesh_まとめ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imp01/Documents/kajimoto/ansys-management/CFRP2本_lap=20/thickness=1.0/gap=2.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/CFRP2本_lap=20/thickness=1.0/gap=2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FC15B4-CF50-DF4A-809B-5D1EB3F31240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931E1AC2-917F-F745-8C40-E08A3BDD5C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20000" yWindow="10860" windowWidth="27900" windowHeight="16940" activeTab="4" xr2:uid="{92777FAF-722A-AD4C-90A5-EBB347E54666}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{92777FAF-722A-AD4C-90A5-EBB347E54666}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,6 @@
     <sheet name="t2" sheetId="4" r:id="rId4"/>
     <sheet name="まとめ" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'t3'!$B$2:$B$9</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'t3'!$C$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'t3'!$C$2:$C$9</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>解析は100分割されて計算されているため，引張距離が短いほど細かく計算され，より高い精度の結果が得られることが考えられる．</t>
     <rPh sb="0" eb="2">
@@ -217,6 +212,9 @@
   </si>
   <si>
     <t>C2_l20_th1.0_g2.0_d0.3_t2</t>
+  </si>
+  <si>
+    <t>C2_l20_th1.0_g2.0_d0.2_t2</t>
   </si>
 </sst>
 </file>
@@ -621,6 +619,414 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'t2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>young's_modulus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'t2'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'t2'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3502.1117142857152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3499.0360730000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3502.656872727272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3508.0846545454551</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3513.3360000000011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3520.2787999999991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3529.1459999999988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3544.0101999999988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-99F1-5840-AE3B-5B4C757B68B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'t3'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>young's_modulus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'t3'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'t3'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3479.4623515151511</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3482.9911757575751</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3487.5055515151498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3495.6881939393929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3507.3919999999989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3520.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3529.0324000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3544.0097333333329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-99F1-5840-AE3B-5B4C757B68B2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="655307232"/>
+        <c:axId val="1467172431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="655307232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1467172431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1467172431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655307232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -1382,6 +1788,355 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'t3'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>young's_modulus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'t3'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'t3'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3479.4623515151511</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3482.9911757575751</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3487.5055515151498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3495.6881939393929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3507.3919999999989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3520.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3529.0324000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3544.0097333333329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-500D-5D49-A649-BB7C2CB6BC51}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="655307232"/>
+        <c:axId val="1467172431"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="655307232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1467172431"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1467172431"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="655307232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'t2'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1454,6 +2209,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14.12036</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>18.73236</c:v>
                 </c:pt>
@@ -1672,7 +2430,356 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'t2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>young's_modulus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'t2'!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'t2'!$D$2:$D$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3502.1117142857152</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3499.0360730000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3502.656872727272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3508.0846545454551</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3513.3360000000011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3520.2787999999991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3529.1459999999988</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3544.0101999999988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88D2-7E43-9875-25B51B080284}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1357019679"/>
+        <c:axId val="1289908575"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1357019679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1289908575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1289908575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="3400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1357019679"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2045,7 +3152,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2197,6 +3304,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14.12036</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>18.73236</c:v>
                 </c:pt>
@@ -2415,7 +3525,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -2599,6 +3709,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14.12036</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>18.73236</c:v>
                 </c:pt>
@@ -2707,6 +3820,8 @@
         <c:axId val="2020681535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="22"/>
+          <c:min val="12"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3029,6 +4144,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5610,6 +6805,1038 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6242,6 +8469,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF211CA-0E0D-224B-B010-86B2DDC034D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6278,6 +8541,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30858BEE-ECC3-D941-9643-64068992D46C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6368,14 +8667,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6397,6 +8696,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E53A5F3A-B8F3-7E44-8C7E-9DB86BBAD120}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6704,7 +9041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A55C2B1-C590-164D-9272-0CADEDEB21FC}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -6914,7 +9251,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7064,7 +9401,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C9"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -7090,8 +9427,17 @@
       </c>
     </row>
     <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="B2">
         <v>0.2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>14.12036</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3502.1117142857152</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7203,8 +9549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB15A38-B4EA-EA41-A8B5-75EC90EA2374}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
